--- a/Back-End/Diretorio_python/dados.xlsx
+++ b/Back-End/Diretorio_python/dados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\pythonProject\Diretorio_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\PycharmProjects\pythonProject\criar_planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E7F8C-6C9F-4600-8CF5-8A5A166D3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,24 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Daiane</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>ATIVO</t>
+  </si>
+  <si>
+    <t>CARRARINHA</t>
+  </si>
+  <si>
+    <t>Safira</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>esf</t>
+  </si>
+  <si>
+    <t>DADÁ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,29 +374,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>94013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>12345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
